--- a/biology/Origine et évolution du vivant/Sipuncula/Sipuncula.xlsx
+++ b/biology/Origine et évolution du vivant/Sipuncula/Sipuncula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Siponcles (Sipuncula) sont un embranchement d'animaux marins vermiformes non-segmentés. Ils sont sédentaires et vivent au fond des océans (de la zone intertidale à près de 7 000 m de fond), cachés dans les sédiments, les anfractuosités rocheuses ou dans des tubes vide de vers tubulaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur corps présente deux zones différentes. La partie avant constitue un segment rétractable, l'introvert, qui porte à l'extrémité la bouche, entourée de tentacules ciliés ou de lobes charnus permettant la collecte des particules en suspension. La partie arrière, plus ventrue, reste protégée. Les siponcles n'ont ni système respiratoire ni système circulatoire.
 Certaines espèces sont consommées en Asie, notamment en Chine.
@@ -543,10 +557,12 @@
           <t>Phylogénie et Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait de leur absence de segmentation, ils ont souvent été considérés comme un embranchement distinct des Annélides mais les analyses de phylogénie moléculaire confirment leur appartenance (comme celle des Échiuriens) à cet embranchement[1],[2]. Une possible synapomorphie d'un sous-groupe d'annélides contenant les siponcles, serait la présence d'une cuticule constituée d'une matrice contenant des fibres de collagène arrangées perpendiculairement les unes aux autres ainsi formant une "grille orthogonale" [3],[4]. Par conséquent ce caractères serait potentiellement une synapomorphie du clade (Amphinomida + Sipuncula + Pleistoannelida), et absent chez des groupes comme les Oweniidae, Magelonidae, ou les Chaetopteridae, faisant partie des nœuds profonds de l'arbre phylogénétique des annélides[3].
-Ils semblent exister depuis longtemps, avec des fossiles d'espèces proches des actuels siponcles remontant au Cambrien[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de leur absence de segmentation, ils ont souvent été considérés comme un embranchement distinct des Annélides mais les analyses de phylogénie moléculaire confirment leur appartenance (comme celle des Échiuriens) à cet embranchement,. Une possible synapomorphie d'un sous-groupe d'annélides contenant les siponcles, serait la présence d'une cuticule constituée d'une matrice contenant des fibres de collagène arrangées perpendiculairement les unes aux autres ainsi formant une "grille orthogonale" ,. Par conséquent ce caractères serait potentiellement une synapomorphie du clade (Amphinomida + Sipuncula + Pleistoannelida), et absent chez des groupes comme les Oweniidae, Magelonidae, ou les Chaetopteridae, faisant partie des nœuds profonds de l'arbre phylogénétique des annélides.
+Ils semblent exister depuis longtemps, avec des fossiles d'espèces proches des actuels siponcles remontant au Cambrien.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste des sous-groupes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Phascolosoma turnerae (famille des Phascolosomatidae)
